--- a/database/dswimdata/DSWIM_Data _Dictionary_06_Aug_2019.xlsx
+++ b/database/dswimdata/DSWIM_Data _Dictionary_06_Aug_2019.xlsx
@@ -12,11 +12,12 @@
     <workbookView xWindow="0" yWindow="450" windowWidth="28890" windowHeight="12510"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="View" sheetId="2" r:id="rId2"/>
+    <sheet name="TableName" sheetId="3" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId2"/>
+    <sheet name="View" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Table!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12620" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13697" uniqueCount="1413">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -4055,6 +4056,221 @@
   </si>
   <si>
     <t>XREF_OWNER_BA_ID</t>
+  </si>
+  <si>
+    <t>WELL_DAILY_PRODUCT_DATA</t>
+  </si>
+  <si>
+    <t>Table_Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>DSRTA</t>
+  </si>
+  <si>
+    <t>PDM_DSWIM</t>
+  </si>
+  <si>
+    <t>PDMExt_DSWIM</t>
+  </si>
+  <si>
+    <t>PDMW_DSWIM</t>
+  </si>
+  <si>
+    <t>dsrtatable</t>
+  </si>
+  <si>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>CLASS_PROPERTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELIVERY_NETWORK:  A table identifying the delivery network object.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELIVERY_NETWORK_VERSION: A table identifying the version of delivery network object </t>
+  </si>
+  <si>
+    <t>PRODUCTION ENTITY AS WELL COMPLETION:  This table facilitates the representation of a well completion as a production reporting entity. It allows a different set of identifiers and relationships for production  reporting purposes.</t>
+  </si>
+  <si>
+    <t>REFERENCE PROJECT PLAN: To define generalized or approved set of steps to be undertaken in certain set of circumstances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPMENT SPECIFICATION:  Use this table to capture the specification or callibration type of measurement that is captured for a specific piece of equipment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCE FACILITY TYPE:  A reference table identifying the codes classifying the facility according to its physical equipment or principal  service performed.    </t>
+  </si>
+  <si>
+    <t>REFERENCE SEVERITY: A valid list of severity types used for a qualifier of lost circulation or water flow into the wellbore. For example minor or severe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCE WELL STATUS: This reference table defines the status of the well.      </t>
+  </si>
+  <si>
+    <t>REFERENCE SEVERITY: the code or type of restriction classification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELL EQUIPMENT:  ennumerates the equipment installed at the well.       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELL REMARK: The Well Remark table contains additional information pertaining to a specific event within the wellbore. Remarks contained in this table may also refer to information regarding formation and stratigraphic interval referenced   by remarks.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREA:  Describes geographic areas of any type such as projects offshore areas etc.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSINESS ASSOCIATE: The Business Associate table serves as a   validation/lookup table associating the code values for each business   associate with their full name and information about company partners  and other parties with whom business is conducted (e.g. applicants  owners  contractors  operators  original   operators  previous operators  etc.).    BUSINESS ASSOCIATE COMP  ANY:  A valid sub-type of BUSINESS ASSOCIATE.      BUSINESS ASSOCIATE CONSORTIUM:  A valid subtype of BUSINESS ASSOCIATE  that is a consortium composed of other BUSINESS ASSOCIATES.  Members  of the consortium  with their interest and roles in it  are tracked as  an INTEREST SET.     BUSINESS ASSOCIATE GOVERNMENT:  A valid sub type of BUSINESS ASSOCIATE  that is a governmenta  regulaltory or juris  dictional body.      BUSINESS ASSOCIATE PERSON:  A valid sub-type of BUSINESS ASSOCIATE  that is an individual person.  Relationships of the person to a  company or jurisdiction or organizational structure  may be captured  in the table BA XREF.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPMENT:  Use this table to describe pieces of equipment that are real,as opposed to represented in a catalogue. May be any kind of equipment such as trucks rigs computers microscopes gaugues etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPMENT MAINTENANCE TYPE:  Use this table to track the various types of maintenace that may occur on equipment.  This table has a two part primary key so that each kind of equipment lists only the maintenance activities that are relevant for it.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPMENT MAINTENANCE:  Use this table to track scheduled and actual maintenance activities on a piece of equipment such as cleaning calibration rebuilding etc. For more detail about maintenance and associated processes please use the PROJECTS module. Financial information (costs) should be stored in the FINANCE tables. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPMENT SPECIFICATIONS:  Use this table to capture specifications for specific pieces of equipment.  These specifications may vary among specific manufactured pieces  such as calibration specifications.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPMENT SPECIFICATION SET:  use this table to group together specifications into sets that are relevent for particular purposes such as for a type of equipment.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACILITY:  A collection of surface equipment and meters which  facilitate the production injection or disposition of products.  This  equipment supports any operation in the processing  development and  transportation of products.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACILITY  AREA:  this table tracks the relationships between facilities and all areas that they intersect with.  These areas may be formal geopolitical areas business or regulatory areas   informal areas etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>FIELD: A geographical area defined for administrative and legal  purposes.  The field name refers to the surface area  although at  times it may refer to both the surface and the underground productive   zones.  In the United States a field is often an area consisting of a single  reservoir or multiple reservoirs all grouped on  or related to   the  same individual geological structural feature a  nd/or stratigraphic  condition.    Fields are usually defined at a province/state level but possibly are   done at the district level.</t>
+  </si>
+  <si>
+    <t>PRODUCTION ENTITY:  This table represents any entity for which product  ion could be reported against.  This entity could be physical  installations such as a production well string  a spatial construct  such as lease or reservoir or it could be an organizational concept  such as business unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION ENTITY AS EQUIPMENT:  This table facilitates the  representation of any type of EQUIPMENT such as a county as a production reporting entity.  It  allows a different set of identifiers and relationships for production  reporting purposes.   For instance  an organization may have an internal identifier for a  county that is different than what is used by the organization or  its business partners  for reporting purposes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION ENTITY AS FACILITY:  This table facilitates the  representation of a facility as a production reporting entity.  It  allows a different set of identifiers and relationships for production  reporting purposes.   For instance  an organization may have an internal identifier for a  facility that is different than what is used by the organization or  its business partners for reporting pur  poses.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION ENTITY AS WELL:  This table facilitates the representation  of a well as a production reporting entity.  It allows a different set   of identifiers and relationships for production reporting purposes.   For instance  an organization may have an internal identifier for a  well that is different than what is used by the organization or its  business partners for reporting purposes. </t>
+  </si>
+  <si>
+    <t>MEASUREMENT SYSTEM DEFINITION:  Name and description for valid systems for units of measure. For example  the International System of Units (SI).  In the sample data  where a unit of measure is part of SI will be used - otherwise the precedence will be: SI Imperial US Customary MKS CGS Historical.</t>
+  </si>
+  <si>
+    <t>TABLE PROPERTY CONTROL:  This table can be used to help you control how a vertical table is implemented by determining preferred units of measure data entry types and other specifications for each kind of property that is defined in a vertical table.   We recommend that each row capture property set definitions for only one table.  Each used table will probably require more than one property set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPDM QUANTITY:  Describes the type of value that is being measured The Conventions of ASTM/IEEE SI-10 are used wherever possible.  For example length luminance mass density power. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPDM UNIT OF MEASURE: Table containing all valid units of measure and describes what system they belong to as well as the quantity associated with the unit. A quantity is a "type" of unit for example length pressure and temperature are   all valid quantities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT TYPE:  A table identifying the type of product (fluid) such as GAS OIL WATER NGL etc. Includes the less common products like STEAM METHANE BUTANE HELIUM etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCE ACTIVITY:  A reference table identifying the type of activit  y that caused the movement of fluids to occur such as production injection flaring sales etc. </t>
+  </si>
+  <si>
+    <t>SOURCE DOCUMENT: A list of documents that are used  as  the source for supplying data.  Source documents may include  government and regulatory forms operator reports or scout tickets publications news letters books or jounals.</t>
+  </si>
+  <si>
+    <t>WELL: A table for general and header information about a well.  A well is an actual or proposed hole in the ground
+designed to exchange fluids between a subsurface reservoir and the surface (or another reservoir) or to enable the detection and measurement of rock properties.  A wellbore is a cylindrical hole created by a drill.  A well may consist of zero one or more wellbores; their relations  hips are described by the table WELL_XREF.  Information from other well tables (e.g. key dates and depths) may be included (denormalized) for convenience.  The term "well" is used in the column name and comments to mean "well" "wellbore" either or both (depending on the context).  The column WELL_LEVEL_TYPE is used to describe which type exists in a row of data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELL AREA:  this table tracks the relationships between wells and all areas thay they intersect with.  These areas may be formal geopolitical areas business or regulatory areas informal areas etc. </t>
+  </si>
+  <si>
+    <t>WELL COMPLETION: The Well Completion table identifies the completion interval in the wellbore. Since a wellbore may have multiple completions the completion observation number uniquely identifies each occurrence. This table also describe  s the perforation operations conducted on a wellbore during the completion process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELL STATUS: The Well Status table contains an historical account of the operating status of the wellbore. Described is the actual status of the wellbore on a specific date. The information may include the dates when the well was completed  produced oil/gas injected or was plugged or abandoned. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELLCROSS REFERENCE:  Supports complex relationships between wells.  For example a planned well and the actual well that was drilled or more complex relationships between a parent well and well bores re-entries such as re-completions side bores etc can all be captured. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCE AREA TYPE: The type of area described such as country  province basin project business area etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA CATEGORY:  The category that the business associate is in.  For a company may be legal company sole proprietorship corporation etc. </t>
+  </si>
+  <si>
+    <t>CATALOGUE EQUIPMENT GROUP: The functional group of equipment types such as vehicles drilling rigs measuring equipment monitoring equipment etc. Note that the function of this table may also be assumed by the CLASSIFICATION module for more robust and complete classifications.</t>
+  </si>
+  <si>
+    <t>CATALOGUE EQUIPMENT SUB TYPE: The subtype of equipment that is listed can be grouped into broad classifications with R CAT EQUIP TYPE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATALOGUE EQUIPMENT TYPE: the type of equipment that is listed can be grouped into broad classifications with R CAT EQUIP GROUP if you wish.  Note that the function of this table may also be assumed by the CLASSIFICATION module for more robust and complete classifications.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPICAL EQUIPMENT INSTALLATION TYPE:  Indicates where this type of equipment would normally be used such as on the drilling assembly in the well bore on well site on rig in processing facility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPMENT SPECIFICATION REFERENCE TYPE:  Use this table to indicate the kind of referece point used to describe specifications.  For example if the specifications being captured are tank strappings the SPEC TYPE = TANK STRAPPING and SPEC REF TYPE = STRAPPING MARKERS and the REFERENCED VALUE = the height measure on the tank. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEASUREMENT TYPE:  the type of reading - AutoFill Haul User_Reading </t>
+  </si>
+  <si>
+    <t>REFERENCE PERIOD TYPE:  A reference table identifying the periods  of time. Possible values include DAY  MONTH YEAR.</t>
+  </si>
+  <si>
+    <t>PPDM ROW QUALILTY:  A set of values indicating the quality of data in this row  usually with reference to the method or procedures used to load the data although other types of quality reference are permitted.</t>
+  </si>
+  <si>
+    <t>REFERENCE PRODUCTION METHOD:  This reference table identifies the method of production.  For example swabbing  flowing pumping or gas lift.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCE REMARK TYPE: A reference table describing remark types. This is an open reference table commonly used to group remarks. For example drilling  geologists regulatory or planning. </t>
+  </si>
+  <si>
+    <t>REFERENCE SEVERITY: Whether the restriction is on the surface for the minerals etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCE SOURCE: A reference table identifying the individual company state or government agency that provided information. For example Digitech Dwights PetroData Petroleum Information or API. </t>
+  </si>
+  <si>
+    <t>REFERENCE R_TEST_RESULT: Identifies the general type of test used to evaluate the potential of the well. For example Drill Stem Tests Repeat Formation Tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCE WELL CLASS:  This reference table describes the classification of a well.  This may include  but is not restricted to the Lahee classification scheme.  For example development new field wildcat or outpost. </t>
+  </si>
+  <si>
+    <t>REFERENCE WELL DATUM TYPE: A reference table identifying the type of point or horizontal surface used as an elevation reference for measurements in a well.  Examples: kelly bushing  ground sea level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCE WELL STATUS TYPE:  The type of status reported for the well.  Can include construction status  operating status producing status abandonment status etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPMENT CATALOGUE:  Use this table and its children to list and describe  the kinds of     equipment that you need.  Think of this as a catalogue or brochure that shows all the kinds of equipment that you may use but may or may not actually have.      Actual peices of equipment that exist are defined in the table EQUIPMENT. </t>
   </si>
 </sst>
 </file>
@@ -4100,9 +4316,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4384,10 +4603,1077 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2564"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A985" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K998" sqref="K998"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="103" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>945</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>951</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="345">
+      <c r="A14" t="s">
+        <v>966</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="135">
+      <c r="A15" t="s">
+        <v>984</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>993</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>998</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="90">
+      <c r="A31" t="s">
+        <v>403</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="120">
+      <c r="A32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="150">
+      <c r="A33" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="90">
+      <c r="A34" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="75">
+      <c r="A35" t="s">
+        <v>373</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="105">
+      <c r="A38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="90">
+      <c r="A39" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="225">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="135">
+      <c r="A45" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="195">
+      <c r="A46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="180">
+      <c r="A47" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>451</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="165">
+      <c r="A52" t="s">
+        <v>455</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="105">
+      <c r="A53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="135">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="180">
+      <c r="A56" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="90">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="120">
+      <c r="A58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="75">
+      <c r="A61" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="60">
+      <c r="A62" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="75">
+      <c r="A64" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>557</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>559</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="45">
+      <c r="A68" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="60">
+      <c r="A70" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="120">
+      <c r="A74" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="60">
+      <c r="A75" t="s">
+        <v>588</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="135">
+      <c r="A76" t="s">
+        <v>599</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="75">
+      <c r="A77" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="75">
+      <c r="A78" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="150">
+      <c r="A79" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="75">
+      <c r="A80" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>564</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>566</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30">
+      <c r="A86" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>295</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>299</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="60">
+      <c r="A90" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>261</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="90">
+      <c r="A92" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>561</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="60">
+      <c r="A94" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="75">
+      <c r="A96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="45">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="75">
+      <c r="A98" t="s">
+        <v>379</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="90">
+      <c r="A99" t="s">
+        <v>241</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="60">
+      <c r="A100" t="s">
+        <v>326</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>355</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="90">
+      <c r="A102" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="90">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="45">
+      <c r="A104" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="75">
+      <c r="A105" t="s">
+        <v>391</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>542</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30">
+      <c r="A108" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="90">
+      <c r="A115" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>383</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="300">
+      <c r="A117" t="s">
+        <v>458</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="75">
+      <c r="A118" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="135">
+      <c r="A119" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30">
+      <c r="A121" t="s">
+        <v>301</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="120">
+      <c r="A122" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="120">
+      <c r="A123" t="s">
+        <v>394</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="120">
+      <c r="A124" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>568</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2767"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53662,10 +54948,10 @@
     </row>
     <row r="2464" spans="1:6">
       <c r="A2464" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2464" t="s">
-        <v>302</v>
+        <v>903</v>
       </c>
       <c r="C2464">
         <v>1</v>
@@ -53674,18 +54960,18 @@
         <v>681</v>
       </c>
       <c r="E2464" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2464">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2465" spans="1:6">
       <c r="A2465" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2465" t="s">
-        <v>28</v>
+        <v>795</v>
       </c>
       <c r="C2465">
         <v>2</v>
@@ -53694,78 +54980,78 @@
         <v>681</v>
       </c>
       <c r="E2465" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2465">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2466" spans="1:6">
       <c r="A2466" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2466" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C2466">
         <v>3</v>
       </c>
       <c r="D2466" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E2466" t="s">
         <v>8</v>
       </c>
       <c r="F2466">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2467" spans="1:6">
       <c r="A2467" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2467" t="s">
-        <v>29</v>
+        <v>901</v>
       </c>
       <c r="C2467">
         <v>4</v>
       </c>
       <c r="D2467" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E2467" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="F2467">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2468" spans="1:6">
       <c r="A2468" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2468" t="s">
-        <v>17</v>
+        <v>848</v>
       </c>
       <c r="C2468">
         <v>5</v>
       </c>
       <c r="D2468" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E2468" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="F2468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2469" spans="1:6">
       <c r="A2469" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2469" t="s">
-        <v>18</v>
+        <v>803</v>
       </c>
       <c r="C2469">
         <v>6</v>
@@ -53774,18 +55060,18 @@
         <v>682</v>
       </c>
       <c r="E2469" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2469">
-        <v>4000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2470" spans="1:6">
       <c r="A2470" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2470" t="s">
-        <v>19</v>
+        <v>807</v>
       </c>
       <c r="C2470">
         <v>7</v>
@@ -53794,18 +55080,18 @@
         <v>682</v>
       </c>
       <c r="E2470" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2470">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2471" spans="1:6">
       <c r="A2471" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2471" t="s">
-        <v>20</v>
+        <v>811</v>
       </c>
       <c r="C2471">
         <v>8</v>
@@ -53814,18 +55100,18 @@
         <v>682</v>
       </c>
       <c r="E2471" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2471">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2472" spans="1:6">
       <c r="A2472" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2472" t="s">
-        <v>21</v>
+        <v>813</v>
       </c>
       <c r="C2472">
         <v>9</v>
@@ -53834,18 +55120,18 @@
         <v>682</v>
       </c>
       <c r="E2472" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2472">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2473" spans="1:6">
       <c r="A2473" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2473" t="s">
-        <v>25</v>
+        <v>808</v>
       </c>
       <c r="C2473">
         <v>10</v>
@@ -53854,18 +55140,18 @@
         <v>682</v>
       </c>
       <c r="E2473" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2473">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2474" spans="1:6">
       <c r="A2474" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2474" t="s">
-        <v>24</v>
+        <v>802</v>
       </c>
       <c r="C2474">
         <v>11</v>
@@ -53874,18 +55160,18 @@
         <v>682</v>
       </c>
       <c r="E2474" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2474">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2475" spans="1:6">
       <c r="A2475" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2475" t="s">
-        <v>23</v>
+        <v>812</v>
       </c>
       <c r="C2475">
         <v>12</v>
@@ -53894,18 +55180,18 @@
         <v>682</v>
       </c>
       <c r="E2475" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2475">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2476" spans="1:6">
       <c r="A2476" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2476" t="s">
-        <v>22</v>
+        <v>825</v>
       </c>
       <c r="C2476">
         <v>13</v>
@@ -53914,38 +55200,38 @@
         <v>682</v>
       </c>
       <c r="E2476" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2476">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2477" spans="1:6">
       <c r="A2477" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2477" t="s">
-        <v>15</v>
+        <v>839</v>
       </c>
       <c r="C2477">
         <v>14</v>
       </c>
       <c r="D2477" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E2477" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2477">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2478" spans="1:6">
       <c r="A2478" t="s">
-        <v>301</v>
+        <v>1342</v>
       </c>
       <c r="B2478" t="s">
-        <v>16</v>
+        <v>841</v>
       </c>
       <c r="C2478">
         <v>15</v>
@@ -53954,701 +55240,701 @@
         <v>682</v>
       </c>
       <c r="E2478" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2478">
-        <v>510</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2479" spans="1:6">
       <c r="A2479" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2479" t="s">
-        <v>1332</v>
+        <v>843</v>
       </c>
       <c r="C2479">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D2479" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E2479" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2479">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2480" spans="1:6">
       <c r="A2480" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2480" t="s">
-        <v>285</v>
+        <v>844</v>
       </c>
       <c r="C2480">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D2480" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E2480" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2480">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2481" spans="1:6">
       <c r="A2481" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2481" t="s">
-        <v>1333</v>
+        <v>842</v>
       </c>
       <c r="C2481">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D2481" t="s">
         <v>682</v>
       </c>
       <c r="E2481" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2481">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2482" spans="1:6">
       <c r="A2482" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2482" t="s">
-        <v>17</v>
+        <v>838</v>
       </c>
       <c r="C2482">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D2482" t="s">
         <v>682</v>
       </c>
       <c r="E2482" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2482">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2483" spans="1:6">
       <c r="A2483" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2483" t="s">
-        <v>19</v>
+        <v>874</v>
       </c>
       <c r="C2483">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D2483" t="s">
         <v>682</v>
       </c>
       <c r="E2483" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2483">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2484" spans="1:6">
       <c r="A2484" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2484" t="s">
-        <v>20</v>
+        <v>876</v>
       </c>
       <c r="C2484">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D2484" t="s">
         <v>682</v>
       </c>
       <c r="E2484" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2484">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2485" spans="1:6">
       <c r="A2485" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2485" t="s">
-        <v>933</v>
+        <v>880</v>
       </c>
       <c r="C2485">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2485" t="s">
         <v>682</v>
       </c>
       <c r="E2485" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2485">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2486" spans="1:6">
       <c r="A2486" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2486" t="s">
-        <v>934</v>
+        <v>881</v>
       </c>
       <c r="C2486">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2486" t="s">
         <v>682</v>
       </c>
       <c r="E2486" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2486">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2487" spans="1:6">
       <c r="A2487" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2487" t="s">
-        <v>181</v>
+        <v>877</v>
       </c>
       <c r="C2487">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D2487" t="s">
         <v>682</v>
       </c>
       <c r="E2487" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2487">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2488" spans="1:6">
       <c r="A2488" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2488" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2488">
         <v>25</v>
       </c>
-      <c r="C2488">
-        <v>10</v>
-      </c>
       <c r="D2488" t="s">
         <v>682</v>
       </c>
       <c r="E2488" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2488">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2489" spans="1:6">
       <c r="A2489" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2489" t="s">
-        <v>24</v>
+        <v>814</v>
       </c>
       <c r="C2489">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D2489" t="s">
         <v>682</v>
       </c>
       <c r="E2489" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2489">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2490" spans="1:6">
       <c r="A2490" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2490" t="s">
-        <v>23</v>
+        <v>845</v>
       </c>
       <c r="C2490">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D2490" t="s">
         <v>682</v>
       </c>
       <c r="E2490" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2490">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2491" spans="1:6">
       <c r="A2491" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2491" t="s">
-        <v>22</v>
+        <v>882</v>
       </c>
       <c r="C2491">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D2491" t="s">
         <v>682</v>
       </c>
       <c r="E2491" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2491">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2492" spans="1:6">
       <c r="A2492" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2492" t="s">
-        <v>45</v>
+        <v>702</v>
       </c>
       <c r="C2492">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D2492" t="s">
         <v>682</v>
       </c>
       <c r="E2492" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2492">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2493" spans="1:6">
       <c r="A2493" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2493" t="s">
-        <v>1334</v>
+        <v>719</v>
       </c>
       <c r="C2493">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D2493" t="s">
         <v>682</v>
       </c>
       <c r="E2493" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F2493">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2494" spans="1:6">
       <c r="A2494" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2494" t="s">
-        <v>1335</v>
+        <v>721</v>
       </c>
       <c r="C2494">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D2494" t="s">
         <v>682</v>
       </c>
       <c r="E2494" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2494">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2495" spans="1:6">
       <c r="A2495" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2495" t="s">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="C2495">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D2495" t="s">
         <v>682</v>
       </c>
       <c r="E2495" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2495">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2496" spans="1:6">
       <c r="A2496" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2496" t="s">
-        <v>192</v>
+        <v>849</v>
       </c>
       <c r="C2496">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D2496" t="s">
         <v>682</v>
       </c>
       <c r="E2496" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2496">
-        <v>4000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2497" spans="1:6">
       <c r="A2497" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2497" t="s">
-        <v>1336</v>
+        <v>703</v>
       </c>
       <c r="C2497">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D2497" t="s">
         <v>682</v>
       </c>
       <c r="E2497" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2497">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2498" spans="1:6">
       <c r="A2498" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2498" t="s">
-        <v>549</v>
+        <v>720</v>
       </c>
       <c r="C2498">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D2498" t="s">
         <v>682</v>
       </c>
       <c r="E2498" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2498">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2499" spans="1:6">
       <c r="A2499" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2499" t="s">
-        <v>1296</v>
+        <v>722</v>
       </c>
       <c r="C2499">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D2499" t="s">
         <v>682</v>
       </c>
       <c r="E2499" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2499">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2500" spans="1:6">
       <c r="A2500" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="B2500" t="s">
-        <v>1337</v>
+        <v>701</v>
       </c>
       <c r="C2500">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D2500" t="s">
         <v>682</v>
       </c>
       <c r="E2500" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2500">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2501" spans="1:6">
       <c r="A2501" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2501" t="s">
-        <v>395</v>
+        <v>867</v>
       </c>
       <c r="C2501">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D2501" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E2501" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F2501">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2502" spans="1:6">
       <c r="A2502" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2502" t="s">
-        <v>285</v>
+        <v>892</v>
       </c>
       <c r="C2502">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D2502" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E2502" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F2502">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2503" spans="1:6">
       <c r="A2503" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2503" t="s">
-        <v>44</v>
+        <v>891</v>
       </c>
       <c r="C2503">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D2503" t="s">
         <v>682</v>
       </c>
       <c r="E2503" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F2503">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2504" spans="1:6">
       <c r="A2504" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2504" t="s">
-        <v>17</v>
+        <v>894</v>
       </c>
       <c r="C2504">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D2504" t="s">
         <v>682</v>
       </c>
       <c r="E2504" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2504">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2505" spans="1:6">
       <c r="A2505" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2505" t="s">
-        <v>19</v>
+        <v>897</v>
       </c>
       <c r="C2505">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D2505" t="s">
         <v>682</v>
       </c>
       <c r="E2505" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2505">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2506" spans="1:6">
       <c r="A2506" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2506" t="s">
-        <v>396</v>
+        <v>847</v>
       </c>
       <c r="C2506">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D2506" t="s">
         <v>682</v>
       </c>
       <c r="E2506" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2506">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2507" spans="1:6">
       <c r="A2507" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2507" t="s">
-        <v>20</v>
+        <v>853</v>
       </c>
       <c r="C2507">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D2507" t="s">
         <v>682</v>
       </c>
       <c r="E2507" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2507">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2508" spans="1:6">
       <c r="A2508" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2508" t="s">
-        <v>397</v>
+        <v>151</v>
       </c>
       <c r="C2508">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D2508" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E2508" t="s">
         <v>77</v>
       </c>
       <c r="F2508">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2509" spans="1:6">
       <c r="A2509" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2509" t="s">
-        <v>18</v>
+        <v>828</v>
       </c>
       <c r="C2509">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D2509" t="s">
         <v>682</v>
       </c>
       <c r="E2509" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2509">
-        <v>4000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2510" spans="1:6">
       <c r="A2510" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2510" t="s">
-        <v>398</v>
+        <v>857</v>
       </c>
       <c r="C2510">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D2510" t="s">
         <v>682</v>
       </c>
       <c r="E2510" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2510">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2511" spans="1:6">
       <c r="A2511" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2511" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="C2511">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D2511" t="s">
         <v>682</v>
       </c>
       <c r="E2511" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F2511">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2512" spans="1:6">
       <c r="A2512" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2512" t="s">
-        <v>399</v>
+        <v>887</v>
       </c>
       <c r="C2512">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D2512" t="s">
         <v>682</v>
       </c>
       <c r="E2512" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2512">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2513" spans="1:6">
       <c r="A2513" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2513" t="s">
-        <v>400</v>
+        <v>895</v>
       </c>
       <c r="C2513">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D2513" t="s">
         <v>682</v>
@@ -54662,1021 +55948,5081 @@
     </row>
     <row r="2514" spans="1:6">
       <c r="A2514" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2514" t="s">
-        <v>401</v>
+        <v>859</v>
       </c>
       <c r="C2514">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D2514" t="s">
         <v>682</v>
       </c>
       <c r="E2514" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2514">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2515" spans="1:6">
       <c r="A2515" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2515" t="s">
-        <v>402</v>
+        <v>860</v>
       </c>
       <c r="C2515">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D2515" t="s">
         <v>682</v>
       </c>
       <c r="E2515" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2515">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2516" spans="1:6">
       <c r="A2516" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2516" t="s">
-        <v>25</v>
+        <v>766</v>
       </c>
       <c r="C2516">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D2516" t="s">
         <v>682</v>
       </c>
       <c r="E2516" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2516">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2517" spans="1:6">
       <c r="A2517" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2517" t="s">
-        <v>24</v>
+        <v>785</v>
       </c>
       <c r="C2517">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D2517" t="s">
         <v>682</v>
       </c>
       <c r="E2517" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2517">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2518" spans="1:6">
       <c r="A2518" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2518" t="s">
-        <v>23</v>
+        <v>850</v>
       </c>
       <c r="C2518">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D2518" t="s">
         <v>682</v>
       </c>
       <c r="E2518" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2518">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2519" spans="1:6">
       <c r="A2519" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2519" t="s">
-        <v>22</v>
+        <v>851</v>
       </c>
       <c r="C2519">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D2519" t="s">
         <v>682</v>
       </c>
       <c r="E2519" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2519">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2520" spans="1:6">
       <c r="A2520" t="s">
-        <v>394</v>
+        <v>1342</v>
       </c>
       <c r="B2520" t="s">
-        <v>45</v>
+        <v>870</v>
       </c>
       <c r="C2520">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D2520" t="s">
         <v>682</v>
       </c>
       <c r="E2520" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F2520">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2521" spans="1:6">
       <c r="A2521" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2521" t="s">
-        <v>285</v>
+        <v>799</v>
       </c>
       <c r="C2521">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D2521" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E2521" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F2521">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2522" spans="1:6">
       <c r="A2522" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2522" t="s">
-        <v>1339</v>
+        <v>872</v>
       </c>
       <c r="C2522">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D2522" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E2522" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F2522">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2523" spans="1:6">
       <c r="A2523" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2523" t="s">
-        <v>17</v>
+        <v>830</v>
       </c>
       <c r="C2523">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D2523" t="s">
         <v>682</v>
       </c>
       <c r="E2523" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2523">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2524" spans="1:6">
       <c r="A2524" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2524" t="s">
-        <v>19</v>
+        <v>820</v>
       </c>
       <c r="C2524">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="D2524" t="s">
         <v>682</v>
       </c>
       <c r="E2524" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2524">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2525" spans="1:6">
       <c r="A2525" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2525" t="s">
-        <v>20</v>
+        <v>822</v>
       </c>
       <c r="C2525">
+        <v>62</v>
+      </c>
+      <c r="D2525" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2525" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2525">
         <v>5</v>
-      </c>
-      <c r="D2525" t="s">
-        <v>682</v>
-      </c>
-      <c r="E2525" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2525">
-        <v>8</v>
       </c>
     </row>
     <row r="2526" spans="1:6">
       <c r="A2526" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2526" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="C2526">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D2526" t="s">
         <v>682</v>
       </c>
       <c r="E2526" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2526">
-        <v>4000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2527" spans="1:6">
       <c r="A2527" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2527" t="s">
-        <v>44</v>
+        <v>710</v>
       </c>
       <c r="C2527">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D2527" t="s">
         <v>682</v>
       </c>
       <c r="E2527" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F2527">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2528" spans="1:6">
       <c r="A2528" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2528" t="s">
-        <v>1340</v>
+        <v>711</v>
       </c>
       <c r="C2528">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D2528" t="s">
         <v>682</v>
       </c>
       <c r="E2528" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F2528">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2529" spans="1:6">
       <c r="A2529" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2529" t="s">
-        <v>1341</v>
+        <v>707</v>
       </c>
       <c r="C2529">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D2529" t="s">
         <v>682</v>
       </c>
       <c r="E2529" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2529">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2530" spans="1:6">
       <c r="A2530" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2530" t="s">
-        <v>1304</v>
+        <v>704</v>
       </c>
       <c r="C2530">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D2530" t="s">
         <v>682</v>
       </c>
       <c r="E2530" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F2530">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2531" spans="1:6">
       <c r="A2531" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2531" t="s">
-        <v>25</v>
+        <v>863</v>
       </c>
       <c r="C2531">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D2531" t="s">
         <v>682</v>
       </c>
       <c r="E2531" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2531">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2532" spans="1:6">
       <c r="A2532" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2532" t="s">
-        <v>24</v>
+        <v>888</v>
       </c>
       <c r="C2532">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D2532" t="s">
         <v>682</v>
       </c>
       <c r="E2532" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2532">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2533" spans="1:6">
       <c r="A2533" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2533" t="s">
-        <v>23</v>
+        <v>896</v>
       </c>
       <c r="C2533">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D2533" t="s">
         <v>682</v>
       </c>
       <c r="E2533" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2533">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2534" spans="1:6">
       <c r="A2534" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2534" t="s">
-        <v>22</v>
+        <v>705</v>
       </c>
       <c r="C2534">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D2534" t="s">
         <v>682</v>
       </c>
       <c r="E2534" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2534">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2535" spans="1:6">
       <c r="A2535" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="B2535" t="s">
-        <v>45</v>
+        <v>804</v>
       </c>
       <c r="C2535">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D2535" t="s">
         <v>682</v>
       </c>
       <c r="E2535" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F2535">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2536" spans="1:6">
       <c r="A2536" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2536" t="s">
-        <v>569</v>
+        <v>805</v>
       </c>
       <c r="C2536">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D2536" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E2536" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2536">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2537" spans="1:6">
       <c r="A2537" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2537" t="s">
-        <v>570</v>
+        <v>817</v>
       </c>
       <c r="C2537">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D2537" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E2537" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2537">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2538" spans="1:6">
       <c r="A2538" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2538" t="s">
-        <v>571</v>
+        <v>898</v>
       </c>
       <c r="C2538">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D2538" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E2538" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2538">
-        <v>4000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2539" spans="1:6">
       <c r="A2539" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2539" t="s">
-        <v>572</v>
+        <v>834</v>
       </c>
       <c r="C2539">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D2539" t="s">
         <v>682</v>
       </c>
       <c r="E2539" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2539">
-        <v>4000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2540" spans="1:6">
       <c r="A2540" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2540" t="s">
-        <v>573</v>
+        <v>821</v>
       </c>
       <c r="C2540">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D2540" t="s">
         <v>682</v>
       </c>
       <c r="E2540" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2540">
-        <v>4000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2541" spans="1:6">
       <c r="A2541" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2541" t="s">
-        <v>574</v>
+        <v>840</v>
       </c>
       <c r="C2541">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D2541" t="s">
         <v>682</v>
       </c>
       <c r="E2541" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2541">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2542" spans="1:6">
       <c r="A2542" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2542" t="s">
-        <v>575</v>
+        <v>806</v>
       </c>
       <c r="C2542">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D2542" t="s">
         <v>682</v>
       </c>
       <c r="E2542" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2542">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2543" spans="1:6">
       <c r="A2543" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2543" t="s">
-        <v>276</v>
+        <v>875</v>
       </c>
       <c r="C2543">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D2543" t="s">
         <v>682</v>
       </c>
       <c r="E2543" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2543">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2544" spans="1:6">
       <c r="A2544" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2544" t="s">
-        <v>576</v>
+        <v>827</v>
       </c>
       <c r="C2544">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D2544" t="s">
         <v>682</v>
       </c>
       <c r="E2544" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2544">
-        <v>4000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2545" spans="1:6">
       <c r="A2545" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2545" t="s">
-        <v>577</v>
+        <v>818</v>
       </c>
       <c r="C2545">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D2545" t="s">
         <v>682</v>
       </c>
       <c r="E2545" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2545">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2546" spans="1:6">
       <c r="A2546" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2546" t="s">
-        <v>578</v>
+        <v>886</v>
       </c>
       <c r="C2546">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="D2546" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E2546" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2546">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2547" spans="1:6">
       <c r="A2547" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2547" t="s">
-        <v>579</v>
+        <v>899</v>
       </c>
       <c r="C2547">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D2547" t="s">
         <v>682</v>
       </c>
       <c r="E2547" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2547">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2548" spans="1:6">
       <c r="A2548" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2548" t="s">
-        <v>580</v>
+        <v>749</v>
       </c>
       <c r="C2548">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D2548" t="s">
         <v>682</v>
       </c>
       <c r="E2548" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2548">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2549" spans="1:6">
       <c r="A2549" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2549" t="s">
-        <v>581</v>
+        <v>750</v>
       </c>
       <c r="C2549">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D2549" t="s">
         <v>682</v>
       </c>
       <c r="E2549" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2549">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2550" spans="1:6">
       <c r="A2550" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2550" t="s">
-        <v>582</v>
+        <v>726</v>
       </c>
       <c r="C2550">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D2550" t="s">
         <v>682</v>
       </c>
       <c r="E2550" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2550">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2551" spans="1:6">
       <c r="A2551" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2551" t="s">
-        <v>583</v>
+        <v>729</v>
       </c>
       <c r="C2551">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D2551" t="s">
         <v>682</v>
       </c>
       <c r="E2551" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2551">
-        <v>1000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2552" spans="1:6">
       <c r="A2552" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2552" t="s">
-        <v>584</v>
+        <v>727</v>
       </c>
       <c r="C2552">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D2552" t="s">
         <v>682</v>
       </c>
       <c r="E2552" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2552">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2553" spans="1:6">
       <c r="A2553" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2553" t="s">
-        <v>585</v>
+        <v>728</v>
       </c>
       <c r="C2553">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="D2553" t="s">
         <v>682</v>
       </c>
       <c r="E2553" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2553">
-        <v>4000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2554" spans="1:6">
       <c r="A2554" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2554" t="s">
-        <v>586</v>
+        <v>753</v>
       </c>
       <c r="C2554">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D2554" t="s">
         <v>682</v>
       </c>
       <c r="E2554" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2554">
-        <v>1000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2555" spans="1:6">
       <c r="A2555" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2555" t="s">
-        <v>587</v>
+        <v>754</v>
       </c>
       <c r="C2555">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D2555" t="s">
         <v>682</v>
       </c>
       <c r="E2555" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2555">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2556" spans="1:6">
       <c r="A2556" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2556" t="s">
-        <v>22</v>
+        <v>739</v>
       </c>
       <c r="C2556">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="D2556" t="s">
         <v>682</v>
       </c>
       <c r="E2556" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2556">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2557" spans="1:6">
       <c r="A2557" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2557" t="s">
-        <v>23</v>
+        <v>740</v>
       </c>
       <c r="C2557">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D2557" t="s">
         <v>682</v>
       </c>
       <c r="E2557" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2557">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2558" spans="1:6">
       <c r="A2558" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2558" t="s">
-        <v>24</v>
+        <v>737</v>
       </c>
       <c r="C2558">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D2558" t="s">
         <v>682</v>
       </c>
       <c r="E2558" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F2558">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2559" spans="1:6">
       <c r="A2559" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2559" t="s">
-        <v>25</v>
+        <v>738</v>
       </c>
       <c r="C2559">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D2559" t="s">
         <v>682</v>
       </c>
       <c r="E2559" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2559">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2560" spans="1:6">
       <c r="A2560" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2560" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="C2560">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D2560" t="s">
         <v>682</v>
       </c>
       <c r="E2560" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2560">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2561" spans="1:6">
       <c r="A2561" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2561" t="s">
-        <v>21</v>
+        <v>736</v>
       </c>
       <c r="C2561">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="D2561" t="s">
         <v>682</v>
       </c>
       <c r="E2561" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2561">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2562" spans="1:6">
       <c r="A2562" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2562" t="s">
-        <v>18</v>
+        <v>731</v>
       </c>
       <c r="C2562">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D2562" t="s">
         <v>682</v>
       </c>
       <c r="E2562" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2562">
-        <v>4000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2563" spans="1:6">
       <c r="A2563" t="s">
-        <v>568</v>
+        <v>1342</v>
       </c>
       <c r="B2563" t="s">
-        <v>16</v>
+        <v>732</v>
       </c>
       <c r="C2563">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D2563" t="s">
         <v>682</v>
       </c>
       <c r="E2563" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F2563">
-        <v>510</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2564" spans="1:6">
       <c r="A2564" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2564" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2564">
+        <v>101</v>
+      </c>
+      <c r="D2564" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2564" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2564">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:6">
+      <c r="A2565" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2565">
+        <v>102</v>
+      </c>
+      <c r="D2565" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2565" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2565">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:6">
+      <c r="A2566" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2566">
+        <v>103</v>
+      </c>
+      <c r="D2566" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2566" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2566">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:6">
+      <c r="A2567" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2567" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2567">
+        <v>104</v>
+      </c>
+      <c r="D2567" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2567" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2567">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:6">
+      <c r="A2568" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2568" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2568">
+        <v>105</v>
+      </c>
+      <c r="D2568" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2568" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2568">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:6">
+      <c r="A2569" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2569" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2569">
+        <v>106</v>
+      </c>
+      <c r="D2569" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2569" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2569">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:6">
+      <c r="A2570" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2570" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2570">
+        <v>107</v>
+      </c>
+      <c r="D2570" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2570" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2570">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:6">
+      <c r="A2571" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2571">
+        <v>108</v>
+      </c>
+      <c r="D2571" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2571" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2571">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:6">
+      <c r="A2572" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2572" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2572">
+        <v>109</v>
+      </c>
+      <c r="D2572" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2572" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2572">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:6">
+      <c r="A2573" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2573">
+        <v>110</v>
+      </c>
+      <c r="D2573" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2573" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2573">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:6">
+      <c r="A2574" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2574">
+        <v>111</v>
+      </c>
+      <c r="D2574" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2574" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2574">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:6">
+      <c r="A2575" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2575" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2575">
+        <v>112</v>
+      </c>
+      <c r="D2575" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2575" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2575">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:6">
+      <c r="A2576" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2576" t="s">
+        <v>793</v>
+      </c>
+      <c r="C2576">
+        <v>113</v>
+      </c>
+      <c r="D2576" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2576" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2576">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:6">
+      <c r="A2577" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2577" t="s">
+        <v>794</v>
+      </c>
+      <c r="C2577">
+        <v>114</v>
+      </c>
+      <c r="D2577" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2577" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2577">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:6">
+      <c r="A2578" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2578" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2578">
+        <v>115</v>
+      </c>
+      <c r="D2578" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2578" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2578">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:6">
+      <c r="A2579" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2579" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2579">
+        <v>116</v>
+      </c>
+      <c r="D2579" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2579" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2579">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:6">
+      <c r="A2580" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>855</v>
+      </c>
+      <c r="C2580">
+        <v>117</v>
+      </c>
+      <c r="D2580" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2580" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2580">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:6">
+      <c r="A2581" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2581" t="s">
+        <v>856</v>
+      </c>
+      <c r="C2581">
+        <v>118</v>
+      </c>
+      <c r="D2581" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2581" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2581">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:6">
+      <c r="A2582" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2582" t="s">
+        <v>824</v>
+      </c>
+      <c r="C2582">
+        <v>119</v>
+      </c>
+      <c r="D2582" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2582" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2582">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:6">
+      <c r="A2583" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2583" t="s">
+        <v>800</v>
+      </c>
+      <c r="C2583">
+        <v>120</v>
+      </c>
+      <c r="D2583" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2583" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2583">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:6">
+      <c r="A2584" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2584" t="s">
+        <v>725</v>
+      </c>
+      <c r="C2584">
+        <v>121</v>
+      </c>
+      <c r="D2584" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2584" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2584">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:6">
+      <c r="A2585" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2585" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2585">
+        <v>122</v>
+      </c>
+      <c r="D2585" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2585" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2585">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:6">
+      <c r="A2586" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2586" t="s">
+        <v>797</v>
+      </c>
+      <c r="C2586">
+        <v>123</v>
+      </c>
+      <c r="D2586" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2586" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2586">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:6">
+      <c r="A2587" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2587" t="s">
+        <v>798</v>
+      </c>
+      <c r="C2587">
+        <v>124</v>
+      </c>
+      <c r="D2587" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2587" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2587">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:6">
+      <c r="A2588" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2588" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2588">
+        <v>125</v>
+      </c>
+      <c r="D2588" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2588" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2588">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:6">
+      <c r="A2589" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2589" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2589">
+        <v>126</v>
+      </c>
+      <c r="D2589" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2589" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2589">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:6">
+      <c r="A2590" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2590" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2590">
+        <v>127</v>
+      </c>
+      <c r="D2590" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2590" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2590">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:6">
+      <c r="A2591" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2591" t="s">
+        <v>878</v>
+      </c>
+      <c r="C2591">
+        <v>128</v>
+      </c>
+      <c r="D2591" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2591" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2591">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:6">
+      <c r="A2592" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2592" t="s">
+        <v>829</v>
+      </c>
+      <c r="C2592">
+        <v>129</v>
+      </c>
+      <c r="D2592" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2592" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2592">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:6">
+      <c r="A2593" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2593" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2593">
+        <v>130</v>
+      </c>
+      <c r="D2593" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2593" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2593">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:6">
+      <c r="A2594" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2594" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2594">
+        <v>131</v>
+      </c>
+      <c r="D2594" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2594" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2594">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:6">
+      <c r="A2595" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2595" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2595">
+        <v>132</v>
+      </c>
+      <c r="D2595" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2595" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2595">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:6">
+      <c r="A2596" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2596" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2596">
+        <v>133</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2596" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2596">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:6">
+      <c r="A2597" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2597" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2597">
+        <v>134</v>
+      </c>
+      <c r="D2597" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2597" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2597">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:6">
+      <c r="A2598" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2598" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2598">
+        <v>135</v>
+      </c>
+      <c r="D2598" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2598" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2598">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:6">
+      <c r="A2599" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2599" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2599">
+        <v>136</v>
+      </c>
+      <c r="D2599" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2599" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2599">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:6">
+      <c r="A2600" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2600" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2600">
+        <v>137</v>
+      </c>
+      <c r="D2600" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2600" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2600">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:6">
+      <c r="A2601" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2601" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2601">
+        <v>138</v>
+      </c>
+      <c r="D2601" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2601" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2601">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:6">
+      <c r="A2602" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2602" t="s">
+        <v>893</v>
+      </c>
+      <c r="C2602">
+        <v>139</v>
+      </c>
+      <c r="D2602" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2602" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2602">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:6">
+      <c r="A2603" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2603" t="s">
+        <v>819</v>
+      </c>
+      <c r="C2603">
+        <v>140</v>
+      </c>
+      <c r="D2603" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2603" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2603">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:6">
+      <c r="A2604" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2604" t="s">
+        <v>885</v>
+      </c>
+      <c r="C2604">
+        <v>141</v>
+      </c>
+      <c r="D2604" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2604" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2604">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:6">
+      <c r="A2605" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2605" t="s">
+        <v>900</v>
+      </c>
+      <c r="C2605">
+        <v>142</v>
+      </c>
+      <c r="D2605" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2605" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2605">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:6">
+      <c r="A2606" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2606" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2606">
+        <v>143</v>
+      </c>
+      <c r="D2606" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2606" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2606">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:6">
+      <c r="A2607" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2607" t="s">
+        <v>835</v>
+      </c>
+      <c r="C2607">
+        <v>144</v>
+      </c>
+      <c r="D2607" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2607" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2607">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:6">
+      <c r="A2608" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2608" t="s">
+        <v>852</v>
+      </c>
+      <c r="C2608">
+        <v>145</v>
+      </c>
+      <c r="D2608" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2608" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2608">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:6">
+      <c r="A2609" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2609" t="s">
+        <v>832</v>
+      </c>
+      <c r="C2609">
+        <v>146</v>
+      </c>
+      <c r="D2609" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2609" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2609">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:6">
+      <c r="A2610" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2610" t="s">
+        <v>884</v>
+      </c>
+      <c r="C2610">
+        <v>147</v>
+      </c>
+      <c r="D2610" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2610" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2610">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:6">
+      <c r="A2611" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2611" t="s">
+        <v>865</v>
+      </c>
+      <c r="C2611">
+        <v>148</v>
+      </c>
+      <c r="D2611" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2611" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2611">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:6">
+      <c r="A2612" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2612" t="s">
+        <v>864</v>
+      </c>
+      <c r="C2612">
+        <v>149</v>
+      </c>
+      <c r="D2612" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2612" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2612">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:6">
+      <c r="A2613" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2613" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2613">
+        <v>150</v>
+      </c>
+      <c r="D2613" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2613" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2613">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:6">
+      <c r="A2614" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2614" t="s">
+        <v>837</v>
+      </c>
+      <c r="C2614">
+        <v>151</v>
+      </c>
+      <c r="D2614" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2614" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2614">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:6">
+      <c r="A2615" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2615" t="s">
+        <v>836</v>
+      </c>
+      <c r="C2615">
+        <v>152</v>
+      </c>
+      <c r="D2615" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2615" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2615">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:6">
+      <c r="A2616" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2616" t="s">
+        <v>723</v>
+      </c>
+      <c r="C2616">
+        <v>153</v>
+      </c>
+      <c r="D2616" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2616" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2616">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:6">
+      <c r="A2617" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2617" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2617">
+        <v>154</v>
+      </c>
+      <c r="D2617" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2617" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2617">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:6">
+      <c r="A2618" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2618" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2618">
+        <v>155</v>
+      </c>
+      <c r="D2618" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2618" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2618">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:6">
+      <c r="A2619" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2619" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2619">
+        <v>156</v>
+      </c>
+      <c r="D2619" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2619" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2619">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:6">
+      <c r="A2620" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2620" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2620">
+        <v>157</v>
+      </c>
+      <c r="D2620" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2620" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2620">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:6">
+      <c r="A2621" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2621" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2621">
+        <v>158</v>
+      </c>
+      <c r="D2621" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2621" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2621">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:6">
+      <c r="A2622" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2622" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2622">
+        <v>159</v>
+      </c>
+      <c r="D2622" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2622" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2622">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:6">
+      <c r="A2623" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2623" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2623">
+        <v>160</v>
+      </c>
+      <c r="D2623" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2623" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2623">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:6">
+      <c r="A2624" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2624" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2624">
+        <v>161</v>
+      </c>
+      <c r="D2624" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2624" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2624">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:6">
+      <c r="A2625" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2625" t="s">
+        <v>792</v>
+      </c>
+      <c r="C2625">
+        <v>162</v>
+      </c>
+      <c r="D2625" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2625" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2625">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:6">
+      <c r="A2626" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2626" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2626">
+        <v>163</v>
+      </c>
+      <c r="D2626" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2626" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2626">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:6">
+      <c r="A2627" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2627" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2627">
+        <v>164</v>
+      </c>
+      <c r="D2627" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2627" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2627">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:6">
+      <c r="A2628" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2628" t="s">
+        <v>767</v>
+      </c>
+      <c r="C2628">
+        <v>165</v>
+      </c>
+      <c r="D2628" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2628" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2628">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:6">
+      <c r="A2629" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2629" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2629">
+        <v>166</v>
+      </c>
+      <c r="D2629" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2629" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2629">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:6">
+      <c r="A2630" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2630" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2630">
+        <v>167</v>
+      </c>
+      <c r="D2630" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2630" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2630">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:6">
+      <c r="A2631" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2631" t="s">
+        <v>778</v>
+      </c>
+      <c r="C2631">
+        <v>168</v>
+      </c>
+      <c r="D2631" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2631" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2631">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:6">
+      <c r="A2632" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2632" t="s">
+        <v>791</v>
+      </c>
+      <c r="C2632">
+        <v>169</v>
+      </c>
+      <c r="D2632" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2632" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2632">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:6">
+      <c r="A2633" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2633" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2633">
+        <v>170</v>
+      </c>
+      <c r="D2633" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2633" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2633">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:6">
+      <c r="A2634" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2634" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2634">
+        <v>171</v>
+      </c>
+      <c r="D2634" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2634" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2634">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:6">
+      <c r="A2635" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2635" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2635">
+        <v>172</v>
+      </c>
+      <c r="D2635" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2635" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2635">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:6">
+      <c r="A2636" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2636" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2636">
+        <v>173</v>
+      </c>
+      <c r="D2636" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2636" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2636">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:6">
+      <c r="A2637" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2637" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2637">
+        <v>174</v>
+      </c>
+      <c r="D2637" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2637" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2637">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:6">
+      <c r="A2638" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2638" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2638">
+        <v>175</v>
+      </c>
+      <c r="D2638" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2638" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2638">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:6">
+      <c r="A2639" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2639" t="s">
+        <v>733</v>
+      </c>
+      <c r="C2639">
+        <v>176</v>
+      </c>
+      <c r="D2639" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2639" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2639">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:6">
+      <c r="A2640" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2640" t="s">
+        <v>734</v>
+      </c>
+      <c r="C2640">
+        <v>177</v>
+      </c>
+      <c r="D2640" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2640" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2640">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:6">
+      <c r="A2641" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2641" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2641">
+        <v>178</v>
+      </c>
+      <c r="D2641" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2641" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2641">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:6">
+      <c r="A2642" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2642" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2642">
+        <v>179</v>
+      </c>
+      <c r="D2642" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2642" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2642">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:6">
+      <c r="A2643" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2643" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2643">
+        <v>180</v>
+      </c>
+      <c r="D2643" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2643" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2643">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:6">
+      <c r="A2644" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2644" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2644">
+        <v>181</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2644" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2644">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:6">
+      <c r="A2645" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2645" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2645">
+        <v>182</v>
+      </c>
+      <c r="D2645" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2645" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2645">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:6">
+      <c r="A2646" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2646" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2646">
+        <v>183</v>
+      </c>
+      <c r="D2646" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2646" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2646">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:6">
+      <c r="A2647" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2647" t="s">
+        <v>730</v>
+      </c>
+      <c r="C2647">
+        <v>184</v>
+      </c>
+      <c r="D2647" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2647" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2647">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:6">
+      <c r="A2648" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2648" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2648">
+        <v>185</v>
+      </c>
+      <c r="D2648" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2648" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2648">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:6">
+      <c r="A2649" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2649" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2649">
+        <v>186</v>
+      </c>
+      <c r="D2649" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2649" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2649">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:6">
+      <c r="A2650" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2650" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2650">
+        <v>187</v>
+      </c>
+      <c r="D2650" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2650" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2650">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:6">
+      <c r="A2651" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2651" t="s">
+        <v>783</v>
+      </c>
+      <c r="C2651">
+        <v>188</v>
+      </c>
+      <c r="D2651" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2651" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2651">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:6">
+      <c r="A2652" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2652" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2652">
+        <v>189</v>
+      </c>
+      <c r="D2652" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2652" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2652">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:6">
+      <c r="A2653" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2653" t="s">
+        <v>866</v>
+      </c>
+      <c r="C2653">
+        <v>190</v>
+      </c>
+      <c r="D2653" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2653" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2653">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:6">
+      <c r="A2654" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2654" t="s">
+        <v>854</v>
+      </c>
+      <c r="C2654">
+        <v>191</v>
+      </c>
+      <c r="D2654" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2654" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2654">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:6">
+      <c r="A2655" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2655" t="s">
+        <v>724</v>
+      </c>
+      <c r="C2655">
+        <v>192</v>
+      </c>
+      <c r="D2655" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2655" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2655">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:6">
+      <c r="A2656" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2656" t="s">
+        <v>889</v>
+      </c>
+      <c r="C2656">
+        <v>193</v>
+      </c>
+      <c r="D2656" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2656" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2656">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:6">
+      <c r="A2657" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2657" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2657">
+        <v>194</v>
+      </c>
+      <c r="D2657" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2657" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2657">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:6">
+      <c r="A2658" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2658" t="s">
+        <v>869</v>
+      </c>
+      <c r="C2658">
+        <v>195</v>
+      </c>
+      <c r="D2658" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2658" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2658">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:6">
+      <c r="A2659" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2659" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2659">
+        <v>196</v>
+      </c>
+      <c r="D2659" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2659" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2659">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:6">
+      <c r="A2660" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2660" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2660">
+        <v>197</v>
+      </c>
+      <c r="D2660" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2660" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2660">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:6">
+      <c r="A2661" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2661" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C2661">
+        <v>198</v>
+      </c>
+      <c r="D2661" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2661" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2661">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:6">
+      <c r="A2662" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2662" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C2662">
+        <v>199</v>
+      </c>
+      <c r="D2662" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2662" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2662">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:6">
+      <c r="A2663" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2663" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C2663">
+        <v>200</v>
+      </c>
+      <c r="D2663" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2663" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2663">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:6">
+      <c r="A2664" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2664" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C2664">
+        <v>201</v>
+      </c>
+      <c r="D2664" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2664" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2664">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:6">
+      <c r="A2665" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2665" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C2665">
+        <v>202</v>
+      </c>
+      <c r="D2665" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2665" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2665">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:6">
+      <c r="A2666" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B2666" t="s">
+        <v>826</v>
+      </c>
+      <c r="C2666">
+        <v>203</v>
+      </c>
+      <c r="D2666" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2666" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2666">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:6">
+      <c r="A2667" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2667" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2667">
+        <v>1</v>
+      </c>
+      <c r="D2667" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2667" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2667">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:6">
+      <c r="A2668" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2668" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2668">
+        <v>2</v>
+      </c>
+      <c r="D2668" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2668" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2668">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:6">
+      <c r="A2669" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2669" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2669">
+        <v>3</v>
+      </c>
+      <c r="D2669" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2669" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2669">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:6">
+      <c r="A2670" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2670" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2670">
+        <v>4</v>
+      </c>
+      <c r="D2670" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2670" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2670">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:6">
+      <c r="A2671" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2671" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2671">
+        <v>5</v>
+      </c>
+      <c r="D2671" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2671" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2671">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:6">
+      <c r="A2672" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2672" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2672">
+        <v>6</v>
+      </c>
+      <c r="D2672" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2672" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2672">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:6">
+      <c r="A2673" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2673" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2673">
+        <v>7</v>
+      </c>
+      <c r="D2673" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2673" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2673">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:6">
+      <c r="A2674" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2674" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2674">
+        <v>8</v>
+      </c>
+      <c r="D2674" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2674" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2674">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:6">
+      <c r="A2675" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2675" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2675">
+        <v>9</v>
+      </c>
+      <c r="D2675" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2675" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2675">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:6">
+      <c r="A2676" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2676" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2676">
+        <v>10</v>
+      </c>
+      <c r="D2676" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2676" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2676">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:6">
+      <c r="A2677" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2677" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2677">
+        <v>11</v>
+      </c>
+      <c r="D2677" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2677" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2677">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:6">
+      <c r="A2678" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2678" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2678">
+        <v>12</v>
+      </c>
+      <c r="D2678" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2678" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2678">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:6">
+      <c r="A2679" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2679" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2679">
+        <v>13</v>
+      </c>
+      <c r="D2679" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2679" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2679">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:6">
+      <c r="A2680" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2680" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2680">
+        <v>14</v>
+      </c>
+      <c r="D2680" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2680" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2680">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:6">
+      <c r="A2681" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2681" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2681">
+        <v>15</v>
+      </c>
+      <c r="D2681" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2681" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2681">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:6">
+      <c r="A2682" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2682" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C2682">
+        <v>1</v>
+      </c>
+      <c r="D2682" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2682" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2682">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:6">
+      <c r="A2683" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2683" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2683">
+        <v>2</v>
+      </c>
+      <c r="D2683" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2683" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2683">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:6">
+      <c r="A2684" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2684" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C2684">
+        <v>3</v>
+      </c>
+      <c r="D2684" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2684" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2684">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:6">
+      <c r="A2685" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2685" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2685">
+        <v>4</v>
+      </c>
+      <c r="D2685" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2685" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2685">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:6">
+      <c r="A2686" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2686" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2686">
+        <v>5</v>
+      </c>
+      <c r="D2686" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2686" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2686">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:6">
+      <c r="A2687" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2687" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2687">
+        <v>6</v>
+      </c>
+      <c r="D2687" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2687" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2687">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:6">
+      <c r="A2688" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2688" t="s">
+        <v>933</v>
+      </c>
+      <c r="C2688">
+        <v>7</v>
+      </c>
+      <c r="D2688" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2688" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2688">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:6">
+      <c r="A2689" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2689" t="s">
+        <v>934</v>
+      </c>
+      <c r="C2689">
+        <v>8</v>
+      </c>
+      <c r="D2689" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2689" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2689">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:6">
+      <c r="A2690" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2690" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2690">
+        <v>9</v>
+      </c>
+      <c r="D2690" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2690" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2690">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:6">
+      <c r="A2691" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2691" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2691">
+        <v>10</v>
+      </c>
+      <c r="D2691" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2691" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2691">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:6">
+      <c r="A2692" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2692" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2692">
+        <v>11</v>
+      </c>
+      <c r="D2692" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2692" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2692">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:6">
+      <c r="A2693" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2693" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2693">
+        <v>12</v>
+      </c>
+      <c r="D2693" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2693" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2693">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:6">
+      <c r="A2694" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2694" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2694">
+        <v>13</v>
+      </c>
+      <c r="D2694" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2694" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2694">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:6">
+      <c r="A2695" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2695" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2695">
+        <v>14</v>
+      </c>
+      <c r="D2695" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2695" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2695">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:6">
+      <c r="A2696" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2696" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C2696">
+        <v>15</v>
+      </c>
+      <c r="D2696" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2696" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2696">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:6">
+      <c r="A2697" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2697" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C2697">
+        <v>16</v>
+      </c>
+      <c r="D2697" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2697" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2697">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:6">
+      <c r="A2698" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2698" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2698">
+        <v>17</v>
+      </c>
+      <c r="D2698" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2698" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2698">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:6">
+      <c r="A2699" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2699" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2699">
+        <v>18</v>
+      </c>
+      <c r="D2699" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2699" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2699">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:6">
+      <c r="A2700" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2700" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C2700">
+        <v>19</v>
+      </c>
+      <c r="D2700" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2700" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2700">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:6">
+      <c r="A2701" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2701" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2701">
+        <v>20</v>
+      </c>
+      <c r="D2701" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2701" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2701">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:6">
+      <c r="A2702" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2702" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C2702">
+        <v>21</v>
+      </c>
+      <c r="D2702" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2702" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2702">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:6">
+      <c r="A2703" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2703" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C2703">
+        <v>22</v>
+      </c>
+      <c r="D2703" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2703" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2703">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:6">
+      <c r="A2704" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2704" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2704">
+        <v>1</v>
+      </c>
+      <c r="D2704" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2704" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2704">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:6">
+      <c r="A2705" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2705" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2705">
+        <v>2</v>
+      </c>
+      <c r="D2705" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2705" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2705">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:6">
+      <c r="A2706" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2706" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2706">
+        <v>3</v>
+      </c>
+      <c r="D2706" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2706" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2706">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:6">
+      <c r="A2707" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2707" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2707">
+        <v>4</v>
+      </c>
+      <c r="D2707" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2707" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2707">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:6">
+      <c r="A2708" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2708" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2708">
+        <v>5</v>
+      </c>
+      <c r="D2708" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2708" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2708">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:6">
+      <c r="A2709" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2709" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2709">
+        <v>6</v>
+      </c>
+      <c r="D2709" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2709" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2709">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:6">
+      <c r="A2710" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2710" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2710">
+        <v>7</v>
+      </c>
+      <c r="D2710" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2710" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2710">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:6">
+      <c r="A2711" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2711" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2711">
+        <v>8</v>
+      </c>
+      <c r="D2711" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2711" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2711">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:6">
+      <c r="A2712" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2712" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2712">
+        <v>9</v>
+      </c>
+      <c r="D2712" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2712" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2712">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:6">
+      <c r="A2713" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2713" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2713">
+        <v>10</v>
+      </c>
+      <c r="D2713" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2713" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2713">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:6">
+      <c r="A2714" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2714" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2714">
+        <v>11</v>
+      </c>
+      <c r="D2714" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2714" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2714">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:6">
+      <c r="A2715" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2715" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2715">
+        <v>12</v>
+      </c>
+      <c r="D2715" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2715" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2715">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:6">
+      <c r="A2716" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2716" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2716">
+        <v>13</v>
+      </c>
+      <c r="D2716" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2716" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2716">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:6">
+      <c r="A2717" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2717" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2717">
+        <v>14</v>
+      </c>
+      <c r="D2717" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2717" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2717">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:6">
+      <c r="A2718" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2718" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2718">
+        <v>15</v>
+      </c>
+      <c r="D2718" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2718" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2718">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:6">
+      <c r="A2719" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2719" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2719">
+        <v>16</v>
+      </c>
+      <c r="D2719" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2719" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2719">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:6">
+      <c r="A2720" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2720" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2720">
+        <v>17</v>
+      </c>
+      <c r="D2720" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2720" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2720">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:6">
+      <c r="A2721" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2721" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2721">
+        <v>18</v>
+      </c>
+      <c r="D2721" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2721" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2721">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:6">
+      <c r="A2722" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2722" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2722">
+        <v>19</v>
+      </c>
+      <c r="D2722" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2722" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2722">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:6">
+      <c r="A2723" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2723" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2723">
+        <v>20</v>
+      </c>
+      <c r="D2723" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2723" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2723">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:6">
+      <c r="A2724" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2724" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2724">
+        <v>1</v>
+      </c>
+      <c r="D2724" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2724" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2724">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:6">
+      <c r="A2725" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2725" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C2725">
+        <v>2</v>
+      </c>
+      <c r="D2725" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2725" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2725">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:6">
+      <c r="A2726" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2726" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2726">
+        <v>3</v>
+      </c>
+      <c r="D2726" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2726" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2726">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:6">
+      <c r="A2727" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2727" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2727">
+        <v>4</v>
+      </c>
+      <c r="D2727" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2727" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2727">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:6">
+      <c r="A2728" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2728" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2728">
+        <v>5</v>
+      </c>
+      <c r="D2728" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2728" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2728">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:6">
+      <c r="A2729" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2729" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2729">
+        <v>6</v>
+      </c>
+      <c r="D2729" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2729" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2729">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:6">
+      <c r="A2730" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2730" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2730">
+        <v>7</v>
+      </c>
+      <c r="D2730" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2730" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2730">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:6">
+      <c r="A2731" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2731" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C2731">
+        <v>8</v>
+      </c>
+      <c r="D2731" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2731" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2731">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:6">
+      <c r="A2732" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2732" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C2732">
+        <v>9</v>
+      </c>
+      <c r="D2732" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2732" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2732">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:6">
+      <c r="A2733" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2733" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C2733">
+        <v>10</v>
+      </c>
+      <c r="D2733" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2733" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2733">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:6">
+      <c r="A2734" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2734" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2734">
+        <v>11</v>
+      </c>
+      <c r="D2734" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2734" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2734">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:6">
+      <c r="A2735" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2735" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2735">
+        <v>12</v>
+      </c>
+      <c r="D2735" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2735" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2735">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:6">
+      <c r="A2736" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2736" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2736">
+        <v>13</v>
+      </c>
+      <c r="D2736" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2736" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2736">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:6">
+      <c r="A2737" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2737" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2737">
+        <v>14</v>
+      </c>
+      <c r="D2737" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2737" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2737">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:6">
+      <c r="A2738" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2738" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2738">
+        <v>15</v>
+      </c>
+      <c r="D2738" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2738" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2738">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:6">
+      <c r="A2739" t="s">
         <v>568</v>
       </c>
-      <c r="B2564" t="s">
+      <c r="B2739" t="s">
+        <v>569</v>
+      </c>
+      <c r="C2739">
+        <v>1</v>
+      </c>
+      <c r="D2739" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2739" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2739">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:6">
+      <c r="A2740" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2740" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2740">
+        <v>2</v>
+      </c>
+      <c r="D2740" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2740" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2740">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:6">
+      <c r="A2741" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2741" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2741">
+        <v>3</v>
+      </c>
+      <c r="D2741" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2741" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2741">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:6">
+      <c r="A2742" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2742" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2742">
+        <v>4</v>
+      </c>
+      <c r="D2742" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2742" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2742">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:6">
+      <c r="A2743" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2743">
+        <v>5</v>
+      </c>
+      <c r="D2743" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2743" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2743">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:6">
+      <c r="A2744" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2744" t="s">
+        <v>574</v>
+      </c>
+      <c r="C2744">
+        <v>6</v>
+      </c>
+      <c r="D2744" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2744" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2744">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:6">
+      <c r="A2745" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2745" t="s">
+        <v>575</v>
+      </c>
+      <c r="C2745">
+        <v>7</v>
+      </c>
+      <c r="D2745" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2745" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2745">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:6">
+      <c r="A2746" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2746" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2746">
+        <v>8</v>
+      </c>
+      <c r="D2746" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2746" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2746">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:6">
+      <c r="A2747" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2747" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2747">
+        <v>9</v>
+      </c>
+      <c r="D2747" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2747" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2747">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:6">
+      <c r="A2748" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2748" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2748">
+        <v>10</v>
+      </c>
+      <c r="D2748" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2748" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2748">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:6">
+      <c r="A2749" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2749" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2749">
+        <v>11</v>
+      </c>
+      <c r="D2749" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2749" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2749">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:6">
+      <c r="A2750" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2750" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2750">
+        <v>12</v>
+      </c>
+      <c r="D2750" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2750" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2750">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:6">
+      <c r="A2751" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2751" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2751">
+        <v>13</v>
+      </c>
+      <c r="D2751" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2751" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2751">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:6">
+      <c r="A2752" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2752" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2752">
+        <v>14</v>
+      </c>
+      <c r="D2752" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2752" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2752">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:6">
+      <c r="A2753" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2753" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2753">
         <v>15</v>
       </c>
-      <c r="C2564">
+      <c r="D2753" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2753" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2753">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:6">
+      <c r="A2754" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2754" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2754">
+        <v>16</v>
+      </c>
+      <c r="D2754" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2754" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2754">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:6">
+      <c r="A2755" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2755" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2755">
+        <v>17</v>
+      </c>
+      <c r="D2755" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2755" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2755">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:6">
+      <c r="A2756" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2756" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2756">
+        <v>18</v>
+      </c>
+      <c r="D2756" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2756" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2756">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:6">
+      <c r="A2757" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2757" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2757">
+        <v>19</v>
+      </c>
+      <c r="D2757" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2757" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2757">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:6">
+      <c r="A2758" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2758" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2758">
+        <v>20</v>
+      </c>
+      <c r="D2758" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2758" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2758">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:6">
+      <c r="A2759" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2759" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2759">
+        <v>21</v>
+      </c>
+      <c r="D2759" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2759" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2759">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:6">
+      <c r="A2760" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2760" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2760">
+        <v>22</v>
+      </c>
+      <c r="D2760" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2760" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2760">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:6">
+      <c r="A2761" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2761" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2761">
+        <v>23</v>
+      </c>
+      <c r="D2761" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2761" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2761">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:6">
+      <c r="A2762" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2762" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2762">
+        <v>24</v>
+      </c>
+      <c r="D2762" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2762" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2762">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:6">
+      <c r="A2763" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2763" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2763">
+        <v>25</v>
+      </c>
+      <c r="D2763" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2763" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2763">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:6">
+      <c r="A2764" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2764" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2764">
+        <v>26</v>
+      </c>
+      <c r="D2764" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2764" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2764">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:6">
+      <c r="A2765" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2765" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2765">
+        <v>27</v>
+      </c>
+      <c r="D2765" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2765" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2765">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:6">
+      <c r="A2766" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2766" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2766">
+        <v>28</v>
+      </c>
+      <c r="D2766" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2766" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2766">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:6">
+      <c r="A2767" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2767" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2767">
         <v>29</v>
       </c>
-      <c r="D2564" t="s">
+      <c r="D2767" t="s">
         <v>681</v>
       </c>
-      <c r="E2564" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2564">
+      <c r="E2767" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2767">
         <v>80</v>
       </c>
     </row>
@@ -55687,12 +61033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
